--- a/Algoritme side navigatie.xlsx
+++ b/Algoritme side navigatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Open API\Projecten\HaalCentraal\Centrale landingspagina\Ontwerp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4FEE76-99A4-46A0-8126-C9D19126E1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DFB192-FD2F-42A4-A69F-001E840574F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" xr2:uid="{C9695AEE-976E-4575-8CDA-14CDEC09B7A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>BRK Bevragen</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Link naar getting-started.md</t>
   </si>
   <si>
-    <t>Link naar open en gesloten user stories die op de betreffende IO versie en voorgaande versies betrekking hebben.</t>
-  </si>
-  <si>
     <t>Link naar open en gesloten user stories die op de betreffende versie en voorgaande versies betrekking hebben.</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>Link naar open en gesloten user stories in de GitLab omgeving die op de betreffende versie en voorgaande versies betrekking hebben indien van toepassing.</t>
+  </si>
+  <si>
+    <t>Link naar open en gesloten user stories die op de betreffende IO versie maar niet de voorgaande versies betrekking hebben.</t>
+  </si>
+  <si>
+    <t>Link naar een features.md indien aanwezig. Bevat alleen features voor de betrefende versie.</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F28:F29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -736,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="6" t="s">
@@ -753,7 +756,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="6" t="s">
@@ -803,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="6" t="s">
@@ -837,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="6" t="s">
@@ -854,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="6" t="s">
@@ -871,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="6" t="s">
@@ -888,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="6" t="s">
@@ -905,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="6" t="s">
@@ -921,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="6" t="s">
